--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitya\Desktop\module_gradle\Homework2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C4280-76A5-47D4-A552-3F412ECCB8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F975B-A2B2-475F-986D-FBAA0760ADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="384" windowWidth="22824" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>id университета</t>
   </si>
@@ -154,6 +154,72 @@
   </si>
   <si>
     <t>Васильев В. П.</t>
+  </si>
+  <si>
+    <t>0008-high</t>
+  </si>
+  <si>
+    <t>0009-high</t>
+  </si>
+  <si>
+    <t>0010-high</t>
+  </si>
+  <si>
+    <t>НГТУ им Р.Е. Алексеева</t>
+  </si>
+  <si>
+    <t>НГТУ</t>
+  </si>
+  <si>
+    <t>PROGRAMMER</t>
+  </si>
+  <si>
+    <t>Приволжский медицинский университет</t>
+  </si>
+  <si>
+    <t>ПИМУ</t>
+  </si>
+  <si>
+    <t>Педагогический университет им.Козьмы Минина</t>
+  </si>
+  <si>
+    <t>НГПУ</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
+    <t>0011-high</t>
+  </si>
+  <si>
+    <t>Питерский Выдуманный Педагогический Университет</t>
+  </si>
+  <si>
+    <t>ПВПУ</t>
+  </si>
+  <si>
+    <t>0012-high</t>
+  </si>
+  <si>
+    <t>ННГУ им.Лобачевского</t>
+  </si>
+  <si>
+    <t>ННГУ</t>
+  </si>
+  <si>
+    <t>0013-high</t>
+  </si>
+  <si>
+    <t>НГЛУ им.Добролюбова</t>
+  </si>
+  <si>
+    <t>НГЛУ</t>
+  </si>
+  <si>
+    <t>Макаров Д.А.</t>
+  </si>
+  <si>
+    <t>Матвеева Е.В.</t>
   </si>
 </sst>
 </file>
@@ -507,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,6 +753,34 @@
         <v>4.7</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -695,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,6 +938,108 @@
       </c>
       <c r="E8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>1950</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>1920</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>1911</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>1900</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>1905</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>1903</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
